--- a/paymisleading.xlsx
+++ b/paymisleading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,166 +16,167 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
+    <t>0x3fe4a47e209caa71e78bd6e3e6309263ad5d8170fef9c2337e6d86cab1fb6b69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe7641bb95179cdeb84cad81d6f9bce0c0a79e959db1fe0efe7c2e6d0c50feef7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x87c90f1bd91e147c21f43182077a8e6de5f0e97f6a5eb1ce29bcb5c596eca723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x42ecbaadb26e13af5b13763001c054c4bac0b48738802a6cfd8c5e3081daedaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf35c09172F521F11569147fBa340a27cEc76E086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc9d124e2bcc5451c222767e1dbff7c90950f031abb6d78be57dcce81fd77ec05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x105ed74119FA7391bb582E7BD7A4022D81272CE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xec8f8d6337a8b0549e5d518b4145de81c63421295301098878689ecaae52e4c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x41768588FA3ecD16A37d9D7073707Dc930087D95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7e74ef0c4fb4782b94b554b639ac92f9cefeb5d0a0becd94946711fdcd53679c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x42C034906220DD30FfCA2558c9E30526D7DD83b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb8fc5d2eb8c806dc9aea86d1404c4ed04902fe7391dd5311fb8f71512bf5142a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x810A49B3CA004243044444fd7380D9d8E22E3875</t>
+  </si>
+  <si>
+    <t>0xb280d05c1bd3faac8e29eee8003185ab8faa58daa96adc96651232a259f5ee80</t>
+  </si>
+  <si>
+    <t>0x5843217b72a77dbaa6f64df1acf4d13adcde0551087a4af7996a8829ec2d3e26</t>
+  </si>
+  <si>
+    <t>0xde5e870d539ebb788f903d189934f0582301c2d7b3c712f568544474af32ac5e</t>
+  </si>
+  <si>
+    <t>attack transactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc42d010fe87d06e4dedf3bd989df109973e6e8560fcf608c74819209b62700ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf76EC4442505412eda5c8DE75E45d62f2e16291D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb940faa904b175c9f12860c4512eea4f4c61beee4a8460ec93b5a534d98c33ba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb106f18DF9c547da65C7576D613246fF45beD516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe8a0f600a22a3596fa920f09f66e092d5eb49e5df10c0796c5fb99879ed826e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0dd40bb104ccc111411efb9dc185d90c7e4cba3e9eacd5d5bd789615d644387f</t>
+  </si>
+  <si>
+    <t>0xfe7e85c0a11e60598a5752717b3c0e3011101cdaf93669bf2b474d5d954d4da1</t>
+  </si>
+  <si>
+    <t>0xf52863ee4712ff03d9cb4aaf05c4ed7e9bc3770df20d15277ecd3982832a2845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe61dd9ca7364225afbfb79e15ad33864424e6ae4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfff1d8292c4e9d8c226f9122a988ec9e7c778aa984be5c935cf29ee7a3cedc63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe21d3989d1626f230c11828baaa0218ee47b1fbd65333cc9956e0d83ccd2547d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1b9da7764ed85e84843a835fb4a191a94b0c4eb5b8a83a6738d10cf8ed90b890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6a18c17a05894405599e1b6397fe2f8637994a6e7df03dc0484701c0dab02fb7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80d1486ef600cc56d4df9ed33baf53c60d5a629b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x478d83f2ad909c64a9a3d807b3d8399bb67a997f9721fc5580ae2c51fab92acf</t>
+  </si>
+  <si>
     <t>0x3da71558a40f63b960196cc0679847ff50fad22b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x3fe4a47e209caa71e78bd6e3e6309263ad5d8170fef9c2337e6d86cab1fb6b69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe7641bb95179cdeb84cad81d6f9bce0c0a79e959db1fe0efe7c2e6d0c50feef7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x87c90f1bd91e147c21f43182077a8e6de5f0e97f6a5eb1ce29bcb5c596eca723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x42ecbaadb26e13af5b13763001c054c4bac0b48738802a6cfd8c5e3081daedaf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf35c09172F521F11569147fBa340a27cEc76E086</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xc9d124e2bcc5451c222767e1dbff7c90950f031abb6d78be57dcce81fd77ec05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x105ed74119FA7391bb582E7BD7A4022D81272CE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xec8f8d6337a8b0549e5d518b4145de81c63421295301098878689ecaae52e4c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x41768588FA3ecD16A37d9D7073707Dc930087D95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7e74ef0c4fb4782b94b554b639ac92f9cefeb5d0a0becd94946711fdcd53679c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x42C034906220DD30FfCA2558c9E30526D7DD83b6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0xf8dd9d32af9aebe8c2bdc1944cef4dc98fd33fd9862615fdd01c99e3aee44de6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x060bbae03EF52F1B47db247215Da0FB87FF4B2EB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xb8fc5d2eb8c806dc9aea86d1404c4ed04902fe7391dd5311fb8f71512bf5142a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0E4c4D07Ba172310ebe36622B03de3EBb6686C41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5005223b796d843fc20411db8e5407b0358f74324f08b67e0a6c4623e0f0a98b</t>
-  </si>
-  <si>
-    <t>0x810A49B3CA004243044444fd7380D9d8E22E3875</t>
-  </si>
-  <si>
-    <t>0xb280d05c1bd3faac8e29eee8003185ab8faa58daa96adc96651232a259f5ee80</t>
-  </si>
-  <si>
-    <t>0x17b11649Cfd4d5B434f306192e09593a8a1815Ca</t>
-  </si>
-  <si>
-    <t>0x5843217b72a77dbaa6f64df1acf4d13adcde0551087a4af7996a8829ec2d3e26</t>
-  </si>
-  <si>
-    <t>0xE4282c8D102f650882aff3c00DcEF89dbdC02d0f</t>
-  </si>
-  <si>
-    <t>0xde5e870d539ebb788f903d189934f0582301c2d7b3c712f568544474af32ac5e</t>
+    <t>0x4051334adc52057aca763453820cb0e045076ef3</t>
+  </si>
+  <si>
+    <t>0xf8dd9d32af9aebe8c2bdc1944cef4dc98fd33fd9862615fdd01c99e3aee44de6</t>
   </si>
   <si>
     <t>0x01f4cfc4b4bd0451879403566ecbc1bdf3252499715018ec438454fcc679f7a1</t>
-  </si>
-  <si>
-    <t>0x4AaA0520C612d39F4d6b7f5441Fa8f504d221705</t>
-  </si>
-  <si>
-    <t>attack transactions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xc42d010fe87d06e4dedf3bd989df109973e6e8560fcf608c74819209b62700ef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf76EC4442505412eda5c8DE75E45d62f2e16291D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xb940faa904b175c9f12860c4512eea4f4c61beee4a8460ec93b5a534d98c33ba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xb106f18DF9c547da65C7576D613246fF45beD516</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe8a0f600a22a3596fa920f09f66e092d5eb49e5df10c0796c5fb99879ed826e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0xd4bD13994f535e197D9a8a2bc9101dAA49524029</t>
-  </si>
-  <si>
-    <t>0x0dd40bb104ccc111411efb9dc185d90c7e4cba3e9eacd5d5bd789615d644387f</t>
-  </si>
-  <si>
-    <t>0xfe7e85c0a11e60598a5752717b3c0e3011101cdaf93669bf2b474d5d954d4da1</t>
-  </si>
-  <si>
-    <t>0xf52863ee4712ff03d9cb4aaf05c4ed7e9bc3770df20d15277ecd3982832a2845</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6cd3eb2c78629039e8cfed5b765367fcef155686</t>
-  </si>
-  <si>
-    <t>0xe61dd9ca7364225afbfb79e15ad33864424e6ae4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfff1d8292c4e9d8c226f9122a988ec9e7c778aa984be5c935cf29ee7a3cedc63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe21d3989d1626f230c11828baaa0218ee47b1fbd65333cc9956e0d83ccd2547d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1b9da7764ed85e84843a835fb4a191a94b0c4eb5b8a83a6738d10cf8ed90b890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6a18c17a05894405599e1b6397fe2f8637994a6e7df03dc0484701c0dab02fb7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x80d1486ef600cc56d4df9ed33baf53c60d5a629b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x478d83f2ad909c64a9a3d807b3d8399bb67a997f9721fc5580ae2c51fab92acf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5304b7c848f9d88251df587259a4105a94b561fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x16dc7410210938b1790edf2bc50ede6233ebc2ee</t>
+  </si>
+  <si>
+    <t>0xf636981c440909ab53d5a51c4101e5a6d8d31e11</t>
+  </si>
+  <si>
+    <t>0xc86533fba207236aae198ae53e2b8e14fbf086848d6ef4cd92d3ae6045369cc5</t>
+  </si>
+  <si>
+    <t>0x73cC407fbAE89D69F20Cf15D51aA98171DC5703C</t>
+  </si>
+  <si>
+    <t>0x36a5d5faf33dcaee0e3044f7862f8ca00d4f091d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x080bf510fcbf18b91105470639e9561022937712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -206,15 +207,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,26 +229,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -560,202 +588,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
